--- a/VaydeerMacropadTemplate.xlsx
+++ b/VaydeerMacropadTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fc03ac682f0d1ce5/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PCHenry\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>C+5</t>
   </si>
@@ -100,12 +100,6 @@
     <t>C+H</t>
   </si>
   <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>Win+2</t>
-  </si>
-  <si>
     <t>VS</t>
   </si>
   <si>
@@ -116,6 +110,21 @@
   </si>
   <si>
     <t>Win+4</t>
+  </si>
+  <si>
+    <t>C+S+K</t>
+  </si>
+  <si>
+    <t>TeamsClap</t>
+  </si>
+  <si>
+    <t>TypeAdmin</t>
+  </si>
+  <si>
+    <t>AdminPwd</t>
+  </si>
+  <si>
+    <t>CorpPwd</t>
   </si>
 </sst>
 </file>
@@ -471,7 +480,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F260F60A-DBEE-42CC-E5BD-D375680FC416}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F260F60A-DBEE-42CC-E5BD-D375680FC416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -527,7 +536,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CAA941E0-F4D6-44EA-A8EB-038D50ADF789}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA941E0-F4D6-44EA-A8EB-038D50ADF789}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -588,7 +597,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4084323D-88F2-C9F4-2F3F-73A644E97D5D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4084323D-88F2-C9F4-2F3F-73A644E97D5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -647,7 +656,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE68B881-E2EA-5CFF-A934-57CD65EC15DB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE68B881-E2EA-5CFF-A934-57CD65EC15DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +1000,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,9 +1044,15 @@
       <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="16"/>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -1082,13 +1097,13 @@
         <v>13</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1102,13 +1117,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
